--- a/Journal de travail.xlsx
+++ b/Journal de travail.xlsx
@@ -744,7 +744,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,13 +913,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>44963</v>
+        <v>44966</v>
       </c>
       <c r="B9" s="18">
         <v>1</v>
       </c>
       <c r="C9" s="11">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>6</v>
@@ -1051,7 +1051,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="1026" r:id="rId4" name="Button 2">
-              <controlPr defaultSize="0" autoFill="0" autoPict="0" macro="[0]!_xludf.Duplicate">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0" macro="[0]!Duplicate">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
@@ -1204,6 +1204,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000B38552FA7D4254E8845977232CFE53B" ma:contentTypeVersion="7" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="03e14c2536b56bc7dd47f79481c7176c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0119da2b-60ce-4773-88fa-ebab2cde1f55" xmlns:ns3="c00db93e-a012-41a1-8dae-1f2fb8b40d56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b7050275a68257b53998f6363dd12a8" ns2:_="" ns3:_="">
     <xsd:import namespace="0119da2b-60ce-4773-88fa-ebab2cde1f55"/>
@@ -1386,22 +1401,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152F1D8-BC39-43C0-AFD5-9D59D80C8BCD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FF8A9A8-A00A-4ABC-BBD7-3D54D09AED55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c00db93e-a012-41a1-8dae-1f2fb8b40d56"/>
+    <ds:schemaRef ds:uri="0119da2b-60ce-4773-88fa-ebab2cde1f55"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFD78DB3-3C09-4B83-8502-3F07A10F47B4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1418,29 +1443,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FF8A9A8-A00A-4ABC-BBD7-3D54D09AED55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c00db93e-a012-41a1-8dae-1f2fb8b40d56"/>
-    <ds:schemaRef ds:uri="0119da2b-60ce-4773-88fa-ebab2cde1f55"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152F1D8-BC39-43C0-AFD5-9D59D80C8BCD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Journal de travail.xlsx
+++ b/Journal de travail.xlsx
@@ -8,13 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
-    <sheet name="Totaux" sheetId="4" r:id="rId2"/>
-    <sheet name="Paramètres" sheetId="2" r:id="rId3"/>
+    <sheet name="Paramètres" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
-  <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -41,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>Jour</t>
   </si>
@@ -62,12 +58,6 @@
   </si>
   <si>
     <t>Analyse</t>
-  </si>
-  <si>
-    <t>Somme de Temps [h]</t>
-  </si>
-  <si>
-    <t>Total général</t>
   </si>
   <si>
     <t>Types de tâches</t>
@@ -114,7 +104,10 @@
     <t>Problème par rapport à la création d'un émulateur de téléphone Android : impossible de trouver un répertoire permettant d'enregistrer l'émulateur</t>
   </si>
   <si>
-    <t>Test du framework React Native</t>
+    <t>Suite des tests du framework React Native</t>
+  </si>
+  <si>
+    <t>Tests du framework React Native</t>
   </si>
 </sst>
 </file>
@@ -193,17 +186,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -353,128 +342,6 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Auteur" refreshedDate="43159.426115625" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="4">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:D2" sheet="Journal"/>
-  </cacheSource>
-  <cacheFields count="4">
-    <cacheField name="Jour" numFmtId="16">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2018-01-01T00:00:00" maxDate="2018-01-02T00:00:00" count="1">
-        <d v="2018-01-01T00:00:00"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Semaine" numFmtId="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
-    </cacheField>
-    <cacheField name="Temps [h]" numFmtId="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-    <cacheField name="Type" numFmtId="0">
-      <sharedItems count="4">
-        <s v="Analyse"/>
-        <s v="Documentation" u="1"/>
-        <s v="Implémentation" u="1"/>
-        <s v="Tests" u="1"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="4">
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <x v="0"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" numFmtId="16" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="5">
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Somme de Temps [h]" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -744,300 +611,302 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="84.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="76.7109375" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="9.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="84.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.7109375" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="4">
         <v>44957</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="16">
         <v>1</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="9">
         <v>0.5</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>44957</v>
+      </c>
+      <c r="B3" s="16">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1.75</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>44958</v>
+      </c>
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>44957</v>
-      </c>
-      <c r="B3" s="18">
+      <c r="F4" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>44958</v>
+      </c>
+      <c r="B5" s="16">
         <v>1</v>
       </c>
-      <c r="C3" s="11">
-        <v>1.75</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="C5" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>44959</v>
+      </c>
+      <c r="B6" s="16">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
+        <v>3.25</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>44964</v>
+      </c>
+      <c r="B7" s="16">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9">
+        <v>2.25</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>44965</v>
+      </c>
+      <c r="B8" s="16">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>44966</v>
+      </c>
+      <c r="B9" s="16">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9">
+        <v>3.75</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>44978</v>
+      </c>
+      <c r="B10" s="16">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9">
+        <v>2.25</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>44979</v>
+      </c>
+      <c r="B11" s="16">
+        <v>3</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>44958</v>
-      </c>
-      <c r="B4" s="18">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>44966</v>
+      </c>
+      <c r="B12" s="16">
         <v>1</v>
       </c>
-      <c r="C4" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>44958</v>
-      </c>
-      <c r="B5" s="18">
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>44967</v>
+      </c>
+      <c r="B13" s="16">
         <v>1</v>
       </c>
-      <c r="C5" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>44959</v>
-      </c>
-      <c r="B6" s="18">
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>44968</v>
+      </c>
+      <c r="B14" s="16">
         <v>1</v>
       </c>
-      <c r="C6" s="11">
-        <v>3.25</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>44964</v>
-      </c>
-      <c r="B7" s="18">
+      <c r="C14" s="9">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>44969</v>
+      </c>
+      <c r="B15" s="16">
         <v>1</v>
       </c>
-      <c r="C7" s="11">
-        <v>2.25</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>44965</v>
-      </c>
-      <c r="B8" s="18">
+      <c r="C15" s="9">
+        <v>0</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>44970</v>
+      </c>
+      <c r="B16" s="16">
         <v>1</v>
       </c>
-      <c r="C8" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>44966</v>
-      </c>
-      <c r="B9" s="18">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11">
-        <v>3.75</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>44964</v>
-      </c>
-      <c r="B10" s="18">
-        <v>1</v>
-      </c>
-      <c r="C10" s="11">
-        <v>0</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>44965</v>
-      </c>
-      <c r="B11" s="18">
-        <v>1</v>
-      </c>
-      <c r="C11" s="11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>44966</v>
-      </c>
-      <c r="B12" s="18">
-        <v>1</v>
-      </c>
-      <c r="C12" s="11">
-        <v>0</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>44967</v>
-      </c>
-      <c r="B13" s="18">
-        <v>1</v>
-      </c>
-      <c r="C13" s="11">
-        <v>0</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>44968</v>
-      </c>
-      <c r="B14" s="18">
-        <v>1</v>
-      </c>
-      <c r="C14" s="11">
-        <v>0</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>44969</v>
-      </c>
-      <c r="B15" s="18">
-        <v>1</v>
-      </c>
-      <c r="C15" s="11">
-        <v>0</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>44970</v>
-      </c>
-      <c r="B16" s="18">
-        <v>1</v>
-      </c>
-      <c r="C16" s="11">
-        <v>0</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -1090,72 +959,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Feuille2"/>
-  <dimension ref="A3:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>43101</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuille3"/>
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -1170,7 +973,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1180,22 +983,22 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1204,21 +1007,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000B38552FA7D4254E8845977232CFE53B" ma:contentTypeVersion="7" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="03e14c2536b56bc7dd47f79481c7176c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0119da2b-60ce-4773-88fa-ebab2cde1f55" xmlns:ns3="c00db93e-a012-41a1-8dae-1f2fb8b40d56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b7050275a68257b53998f6363dd12a8" ns2:_="" ns3:_="">
     <xsd:import namespace="0119da2b-60ce-4773-88fa-ebab2cde1f55"/>
@@ -1401,10 +1189,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152F1D8-BC39-43C0-AFD5-9D59D80C8BCD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFD78DB3-3C09-4B83-8502-3F07A10F47B4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0119da2b-60ce-4773-88fa-ebab2cde1f55"/>
+    <ds:schemaRef ds:uri="c00db93e-a012-41a1-8dae-1f2fb8b40d56"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1427,20 +1241,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFD78DB3-3C09-4B83-8502-3F07A10F47B4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152F1D8-BC39-43C0-AFD5-9D59D80C8BCD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0119da2b-60ce-4773-88fa-ebab2cde1f55"/>
-    <ds:schemaRef ds:uri="c00db93e-a012-41a1-8dae-1f2fb8b40d56"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Journal de travail.xlsx
+++ b/Journal de travail.xlsx
@@ -610,8 +610,8 @@
   <sheetPr codeName="Feuille1"/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,18 +1190,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1224,6 +1224,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152F1D8-BC39-43C0-AFD5-9D59D80C8BCD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FF8A9A8-A00A-4ABC-BBD7-3D54D09AED55}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -1238,12 +1246,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152F1D8-BC39-43C0-AFD5-9D59D80C8BCD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>